--- a/db/sqlite3/admin-setting.xlsx
+++ b/db/sqlite3/admin-setting.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7601D77F-AD35-4263-A733-AA198CA1E7C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="0" windowWidth="17180" windowHeight="14820"/>
+    <workbookView xWindow="120" yWindow="0" windowWidth="17175" windowHeight="14820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="7" r:id="rId1"/>
-    <sheet name="mnp" sheetId="12" r:id="rId2"/>
+    <sheet name="temp-mnp" sheetId="12" r:id="rId2"/>
     <sheet name="temp-admin_users" sheetId="13" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tables!$A$1:$F$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tables!$A$1:$F$21</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="77">
   <si>
     <t>address</t>
   </si>
@@ -59,15 +60,9 @@
     <t>options</t>
   </si>
   <si>
-    <t>PRIMARY KEY AUTOINCREMENT NOT NULL</t>
-  </si>
-  <si>
     <t>NUMERIC</t>
   </si>
   <si>
-    <t>số thứ tự ban đầu để duy nhất</t>
-  </si>
-  <si>
     <t>địa chỉ</t>
   </si>
   <si>
@@ -189,9 +184,6 @@
   </si>
   <si>
     <t>start_time</t>
-  </si>
-  <si>
-    <t>default 1, unique(username)</t>
   </si>
   <si>
     <t>last_access_time</t>
@@ -269,8 +261,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -899,13 +891,16 @@
     <cellStyle name="Hyperlink" xfId="250" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="252" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1197,24 +1192,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" customWidth="1"/>
-    <col min="5" max="5" width="34.83203125" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21">
+    <row r="1" spans="1:6" ht="22.5">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1231,448 +1226,431 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75">
       <c r="A2" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75">
+      <c r="A4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16">
-      <c r="A4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75">
       <c r="A5" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="16">
+    <row r="6" spans="1:6" ht="15.75">
       <c r="A6" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75">
+      <c r="A7" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="B7" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16">
-      <c r="A7" t="s">
+      <c r="C7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
         <v>50</v>
       </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16">
-      <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16">
+    </row>
+    <row r="9" spans="1:6" ht="15.75">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
         <v>75</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16">
+    <row r="12" spans="1:6" ht="15.75">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16">
+    <row r="13" spans="1:6" ht="15.75">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16">
+    <row r="14" spans="1:6" ht="15.75">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16">
+    <row r="15" spans="1:6" ht="15.75">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16">
+    <row r="16" spans="1:6" ht="15.75">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16">
+    <row r="18" spans="1:5" ht="15.75">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16">
+    <row r="19" spans="1:5" ht="15.75">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16">
+    <row r="21" spans="1:5" ht="15.75">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="16">
-      <c r="A22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="E21" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="6" customFormat="1" ht="15.75">
+      <c r="A22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="6" customFormat="1" ht="16">
+      <c r="B22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" s="6" customFormat="1" ht="15.75">
       <c r="A23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="1:5" s="6" customFormat="1" ht="16">
+    <row r="24" spans="1:5" s="6" customFormat="1" ht="15.75">
       <c r="A24" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5" s="6" customFormat="1" ht="16">
+    <row r="25" spans="1:5" s="6" customFormat="1" ht="15.75">
       <c r="A25" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5" s="6" customFormat="1" ht="16">
+    </row>
+    <row r="26" spans="1:5" s="6" customFormat="1" ht="15.75">
       <c r="A26" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="6" customFormat="1" ht="16">
+    <row r="27" spans="1:5" s="6" customFormat="1" ht="15.75">
       <c r="A27" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="C28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" s="6" customFormat="1" ht="16">
-      <c r="A28" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="16">
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="16">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F22"/>
+  <autoFilter ref="A1:F21" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -1684,25 +1662,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1710,7 +1688,7 @@
         <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1718,7 +1696,7 @@
         <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1726,7 +1704,7 @@
         <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1734,7 +1712,7 @@
         <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1742,7 +1720,7 @@
         <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1750,7 +1728,7 @@
         <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1758,7 +1736,7 @@
         <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1766,7 +1744,7 @@
         <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1774,7 +1752,7 @@
         <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1782,7 +1760,7 @@
         <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1790,7 +1768,7 @@
         <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1798,7 +1776,7 @@
         <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1806,7 +1784,7 @@
         <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1814,7 +1792,7 @@
         <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1822,7 +1800,7 @@
         <v>94</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1830,7 +1808,7 @@
         <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1838,7 +1816,7 @@
         <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1846,7 +1824,7 @@
         <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1854,7 +1832,7 @@
         <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1862,7 +1840,7 @@
         <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1870,7 +1848,7 @@
         <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1878,7 +1856,7 @@
         <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1886,7 +1864,7 @@
         <v>88</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1894,7 +1872,7 @@
         <v>98</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1902,7 +1880,7 @@
         <v>97</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1910,7 +1888,7 @@
         <v>96</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1918,7 +1896,7 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1926,7 +1904,7 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1934,7 +1912,7 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1942,7 +1920,7 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1950,7 +1928,7 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1958,7 +1936,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1966,7 +1944,7 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1974,7 +1952,7 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1982,7 +1960,7 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1990,7 +1968,7 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1998,7 +1976,7 @@
         <v>92</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2006,7 +1984,7 @@
         <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2021,29 +1999,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="4" width="10.33203125" customWidth="1"/>
+    <col min="3" max="4" width="10.28515625" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.83203125" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -2051,19 +2029,19 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" t="s">
         <v>51</v>
-      </c>
-      <c r="C1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" t="s">
-        <v>53</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -2075,28 +2053,28 @@
         <v>1</v>
       </c>
       <c r="J1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
         <v>54</v>
       </c>
-      <c r="L1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" t="s">
-        <v>57</v>
-      </c>
       <c r="O1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="16">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2107,22 +2085,22 @@
         <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I2" s="9">
         <v>903500888</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -2139,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -2147,7 +2125,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
